--- a/biology/Zoologie/Balaenopteridae/Balaenopteridae.xlsx
+++ b/biology/Zoologie/Balaenopteridae/Balaenopteridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Balénoptéridés (Balaenopteridae), également appelées rorquals, forment une famille de cétacés à fanons, qui se distinguent par leurs sillons ventraux au niveau de la gorge.
 Cette famille regroupe une dizaine d'espèces encore vivantes, parmi lesquelles les plus grandes baleines, dans deux genres. Le nombre d'espèces varie selon les classifications, en effet plusieurs espèces n'ont été identifiées que depuis la mise en place des analyses phylogénétiques.
@@ -513,9 +525,11 @@
           <t>Nom vernaculaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme rorqual est issu du norvégien røyrkval, reyðr signifiant « sillon » et hvalr « baleine »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme rorqual est issu du norvégien røyrkval, reyðr signifiant « sillon » et hvalr « baleine ».
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (13 avril 2016)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (13 avril 2016) :
 sous-famille Balaenopterinae Gray, 1864
 genre Balaenoptera Lacépède, 1804
 espèce Balaenoptera acutorostrata Lacépède, 1804 -- petit rorqual
@@ -558,8 +574,43 @@
 espèce Balaenoptera physalus (Linnaeus, 1758) -- Rorqual commun
 sous-famille Megapterinae Gray, 1864
 genre Megaptera Gray, 1846
-espèce Megaptera novaeangliae (Borowski, 1781) -- rorqual à bosse par l'administration canadienne, en France mégaptère ou baleine à bosse
-Classification phylogénétique
+espèce Megaptera novaeangliae (Borowski, 1781) -- rorqual à bosse par l'administration canadienne, en France mégaptère ou baleine à bosse</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Balaenopteridae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Balaenopteridae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Classification phylogénétique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Wikipédia aujourd'hui
 Classification phylogénétique
 Balaenopteridae et Eschrichtiidae
